--- a/spring-security-oauth2/doc/Server_Review.xlsx
+++ b/spring-security-oauth2/doc/Server_Review.xlsx
@@ -4,20 +4,138 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="10740" windowHeight="7950" firstSheet="3" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="页面流程" sheetId="1" r:id="rId1"/>
-    <sheet name="其他URL" sheetId="2" r:id="rId2"/>
-    <sheet name="重要类List" sheetId="3" r:id="rId3"/>
-    <sheet name="需要改造点" sheetId="4" r:id="rId4"/>
+    <sheet name="需求一览" sheetId="7" r:id="rId1"/>
+    <sheet name="需求点分析" sheetId="6" r:id="rId2"/>
+    <sheet name="Spark2 中配置的几个重要的Spring Bean 对象" sheetId="8" r:id="rId3"/>
+    <sheet name="页面流程" sheetId="1" r:id="rId4"/>
+    <sheet name="其他URL" sheetId="2" r:id="rId5"/>
+    <sheet name="重要类List" sheetId="3" r:id="rId6"/>
+    <sheet name="需要改造点" sheetId="4" r:id="rId7"/>
+    <sheet name="单词" sheetId="5" r:id="rId8"/>
+    <sheet name="Sparklr2研读" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+  <si>
+    <t>需求点</t>
+  </si>
+  <si>
+    <t>需求说明</t>
+  </si>
+  <si>
+    <t>已有功能</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Token列表</t>
+  </si>
+  <si>
+    <t>1. 显示Token内容
+2. 管理员能查询
+3. 显示Token相关的用户信息</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1. 将token信息写入数据库</t>
+  </si>
+  <si>
+    <t>2. client信息从数据库读取</t>
+  </si>
+  <si>
+    <t>OAuth2ServerConfig 类的 AuthorizationServerConfiguration</t>
+  </si>
+  <si>
+    <t>TokenStore 这个接口就是用于存储Token的。</t>
+  </si>
+  <si>
+    <t>3. 用户信息需要从数据库读取</t>
+  </si>
+  <si>
+    <t>SecurityConfiguration 类的 globalUserDetails 方法</t>
+  </si>
+  <si>
+    <t>4. URL的普通用户访问权限配置从数据库读取。</t>
+  </si>
+  <si>
+    <t>1） SecurityConfiguration 类的 configure 配置不需要权限认证的路径</t>
+  </si>
+  <si>
+    <t>2） 配置登录登出，以及某些URL访问需要什么权限</t>
+  </si>
+  <si>
+    <t>5. URL的 oauth2 访问权限配置从数据库读取。</t>
+  </si>
+  <si>
+    <t>类 OAuth2ServerConfig 的 ResourceServerConfiguration</t>
+  </si>
+  <si>
+    <t>配置这些URL是否徐亚认证以及相应的scope 等</t>
+  </si>
+  <si>
+    <t>Bean对象</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>TokenStore</t>
+  </si>
+  <si>
+    <t>org.springframework.security.oauth2.provider.token.store.InMemoryTokenStore</t>
+  </si>
+  <si>
+    <t>photoService</t>
+  </si>
+  <si>
+    <t>org.springframework.security.oauth.examples.sparklr.impl.PhotoServiceImpl</t>
+  </si>
+  <si>
+    <t>clientDetailsService</t>
+  </si>
+  <si>
+    <t>org.springframework.security.oauth2.provider.client.InMemoryClientDetailsService</t>
+  </si>
+  <si>
+    <t>approvalStore</t>
+  </si>
+  <si>
+    <t>org.springframework.security.oauth2.provider.approval.TokenApprovalStore</t>
+  </si>
+  <si>
+    <t>tokenServices</t>
+  </si>
+  <si>
+    <t>org.springframework.security.oauth2.provider.token.DefaultTokenServices</t>
+  </si>
+  <si>
+    <t>userApprovalHandler</t>
+  </si>
+  <si>
+    <t>org.springframework.security.oauth.examples.sparklr.oauth.SparklrUserApprovalHandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TokenStore: </t>
+  </si>
+  <si>
+    <t>在类 OAuth2ServerConfig 中</t>
+  </si>
+  <si>
+    <t>此处@Bean声明了它是一个Spring Bean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoService: </t>
+  </si>
   <si>
     <t>登录流程</t>
   </si>
@@ -62,6 +180,9 @@
   </si>
   <si>
     <t>Class Name</t>
+  </si>
+  <si>
+    <t>Main Method</t>
   </si>
   <si>
     <t>Desc</t>
@@ -89,13 +210,192 @@
     <t>OAuth2SecurityExpressionMethods</t>
   </si>
   <si>
-    <t>Oauth判断类</t>
+    <t>clientHasRole
+hasScope
+denyOAuthClient
+isOAuth
+isUser
+isClient</t>
+  </si>
+  <si>
+    <t>A convenience object for security expressions in OAuth2 protected resources, providing public methods that act on the current authentication.
+Oauth2 便利类
+一个方便的对象，用于oauth2保护资源的安全表达式，提供public 方法进行当前认证</t>
+  </si>
+  <si>
+    <t>DefaultSecurityContextAccessor</t>
+  </si>
+  <si>
+    <t>isUser
+getAuthorities
+getUserAuthentication</t>
+  </si>
+  <si>
+    <t>Strategy for accessing useful information about the current security context. 
+访问当前 security上下文中有用信息的策略.</t>
+  </si>
+  <si>
+    <t>AuthorizationServerTokenServices</t>
+  </si>
+  <si>
+    <t>createAccessToken
+refreshAccessToken
+getAccessToken</t>
+  </si>
+  <si>
+    <t>ResourceServerTokenServices</t>
+  </si>
+  <si>
+    <t>loadAuthentication
+readAccessToken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadAuthentication：
+Load the credentials for the specified access token.
+readAccessToken：
+Retrieve the full access token details from just the value.
+</t>
+  </si>
+  <si>
+    <t>ConsumerTokenServices</t>
+  </si>
+  <si>
+    <t>revokeToken</t>
+  </si>
+  <si>
+    <t>撤销，废除 token</t>
+  </si>
+  <si>
+    <t>DefaultTokenServices</t>
+  </si>
+  <si>
+    <t>实现以下接口: 
+AuthorizationServerTokenServices
+ResourceServerTokenServices
+ConsumerTokenServices</t>
+  </si>
+  <si>
+    <t>OAuth2Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An OAuth 2 authentication token can contain two authentications: one for the client and one for the user.
+</t>
+  </si>
+  <si>
+    <t>OAuth2AccessToken</t>
+  </si>
+  <si>
+    <t>Oauth2 access token 模型</t>
   </si>
   <si>
     <t>1. user配置出改成从数据库读取。</t>
   </si>
   <si>
     <t>2. client配置改成从数据库读取。</t>
+  </si>
+  <si>
+    <t>单词</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>认证</t>
+  </si>
+  <si>
+    <t>convenience</t>
+  </si>
+  <si>
+    <t>方便，便利</t>
+  </si>
+  <si>
+    <t>credentials</t>
+  </si>
+  <si>
+    <t>证书，凭证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ServletInitializer </t>
+  </si>
+  <si>
+    <t>相当于定义了一个　web.xml的配置</t>
+  </si>
+  <si>
+    <t>从Servlet3起，web工程不再需要 web.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原话如下: </t>
+  </si>
+  <si>
+    <t>Servlet 3, no web.xml is required.</t>
+  </si>
+  <si>
+    <t>Spring 3.1+</t>
+  </si>
+  <si>
+    <r>
+      <t>An abstract base class implementation of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WebApplicationInitializer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>named</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AbstractDispatcherServletInitializer</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2. WebMvcConfig </t>
   </si>
 </sst>
 </file>
@@ -103,18 +403,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -139,6 +445,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,42 +460,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,7 +483,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +529,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -238,8 +543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +553,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,11 +566,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -276,19 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,13 +632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,61 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +716,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +758,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,26 +811,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,17 +856,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,39 +908,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,10 +916,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,138 +928,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,14 +1074,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -817,6 +1167,268 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1200150"/>
+          <a:ext cx="4885690" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="3581400"/>
+          <a:ext cx="5885815" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="5848350"/>
+          <a:ext cx="5790565" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7886700"/>
+          <a:ext cx="4904740" cy="3876040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="13154025"/>
+          <a:ext cx="6228715" cy="2771140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="3638550"/>
+          <a:ext cx="4304665" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1487,6 +2099,399 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="B1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="54" customHeight="1" spans="2:5">
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:2">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="53" spans="1:1">
+      <c r="A53" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -1497,64 +2502,64 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
+      <c r="A5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
-        <v>4</v>
+      <c r="A16" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
-        <v>6</v>
+      <c r="A25" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
+      <c r="A35" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A10"/>
@@ -1581,33 +2586,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
+      <c r="A1" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
+      <c r="A7" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +2626,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:R16"/>
+  <dimension ref="A3:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -1635,318 +2640,454 @@
     <col min="1" max="16384" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" ht="75" customHeight="1" spans="2:18">
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" ht="66" customHeight="1" spans="2:18">
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+    <row r="3" spans="1:23">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:23">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" ht="66" customHeight="1" spans="1:23">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" ht="86" customHeight="1" spans="1:23">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" ht="83" customHeight="1" spans="1:23">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" ht="52" customHeight="1" spans="1:23">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" ht="61" customHeight="1" spans="1:23">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="1:23">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" ht="54" customHeight="1" spans="1:23">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:R5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:R6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:R7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:R8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:R9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:R10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:R11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:R12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:R14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:R16"/>
+  <mergeCells count="42">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:W5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:W6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:W7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:W8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:W9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:W10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:W11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:W12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:W13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:W14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:W15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:W16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1954,25 +3095,309 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:H16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
